--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_197.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_197.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,606 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(130.84, 135.98), (2.64, 7.3)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:03.440000', '0:00:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1726973684210526</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D/2'], ['D/3', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1955128205128205</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E'], ['E', 'A', 'E']]</t>
+          <t>[['A', 'E', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(52.196388, 57.251357), (57.251357, 73.909779)]</t>
+          <t>[['A', 'E', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.676666, 13.717755), (6.357029, 23.632675)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:47.015260', '0:01:07.077301')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:12.103968', '0:00:20.776621')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_44</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05746268656716418</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.37, 8.66)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3483870967741935</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_46</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.111969111969112</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['G', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.738798, 41.70941), (39.724104, 43.706326)]</t>
+          <t>[['Db', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(134.84, 137.48), (132.3, 136.56)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:53.001088', '0:00:57.203900')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:51.870000', '0:01:54.760000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1159420289855072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1113122171945701</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(86.923922, 92.322562)]</t>
+          <t>[['A', 'A:7/3', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:54.400000', '0:01:01.440000'), ('0:00:18.260000', '0:00:24.820000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:18.117383', '0:00:21.658426'), ('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08175872093023256</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A'], ['E', 'A', 'D'], ['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E'], ['B', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(76.300702, 81.607119), (39.148775, 43.514126), (65.81034, 71.679931)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.073119, 5.68228), (5.68228, 17.106498), (7.284457, 20.438561)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.146875</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5405405405405406</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>[['Bb', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(107.64, 108.54), (105.0, 108.24)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(21.722199, 26.760929), (65.81034, 71.679931)]</t>
+          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1671428571428571</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(48.617346, 59.937074)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.93948, 19.795536)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_27</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03586956521739131</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'C:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.155014, 49.662244)]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.86, 22.04)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_130</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.02, 66.2)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(89.08, 98.1)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(47.68, 51.98)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1108870967741935</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D/7']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.560212, 12.866913)]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_54</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2807692307692308</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.44, 33.82)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(70.84, 95.2)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(61.14, 83.52)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1607305936073059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C', 'F']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(126.19, 129.59)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(33.724965, 54.715804)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_133</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2527472527472527</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.619, 16.742)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(61.6, 63.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
